--- a/biology/Botanique/Codium_fragile/Codium_fragile.xlsx
+++ b/biology/Botanique/Codium_fragile/Codium_fragile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Codium fragile est une espèce d'algues vertes de la  famille des Codiaceae. C'est une espèce classée invasive, parmi les plus nuisibles en Europe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Codium fragile est une espèce d'algues vertes de la  famille des Codiaceae. C'est une espèce classée invasive, parmi les plus nuisibles en Europe.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (5 mai 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 mai 2013) :
 sous-espèce Codium fragile subsp. atlanticum
 sous-espèce Codium fragile subsp. tomentosoides
-Selon World Register of Marine Species                               (5 mai 2013)[3] :
+Selon World Register of Marine Species                               (5 mai 2013) :
 sous-espèce Codium fragile atlanticum (A.D.Cotton) P.C.Silva, 1955
 sous-espèce Codium fragile californicum (J.Agardh) Maggs &amp; J.Kelly, 2007
 sous-espèce Codium fragile fragile (Suringar) Hariot, 1889
